--- a/BalanceSheet/SQ_bal.xlsx
+++ b/BalanceSheet/SQ_bal.xlsx
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>376187000.0</v>
+        <v>3056000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>125214000.0</v>
+        <v>2759000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1169020000.0</v>
+        <v>2593000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>206245000.0</v>
+        <v>1515000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>18909000.0</v>
+        <v>1315000000.0</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
